--- a/整合結果/EPU匯出結果/2025-06-15/2025-06-15_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-15/2025-06-15_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$90:$A$91</f>
+              <f>'Sheet1'!$A$116:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$90:$B$91</f>
+              <f>'Sheet1'!$B$116:$B$117</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>89</row>
+      <row>115</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2971,42 +2971,844 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-06-15_0530_自由時報_財經_供應鏈韌性峰會 美智庫建議G7改T7.txt</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>半導體、供應鏈、能源、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>地緣政治、產能過剩</t>
+        </is>
+      </c>
+    </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-06-15_0530_自由時報_財經_卡位環保氣體 重電大廠新戰場.txt</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>經濟、綠電</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>7</v>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-06-15_0530_自由時報_財經_台電加速減碳 變電所GIS汰換環保氣體.txt</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>79</v>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-06-15_0530_自由時報_財經_大專畢業生求職》當黑手vs.端餐盤 薪情差4成.txt</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>服務業、經濟、製造業</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-06-15_0530_自由時報_財經_大專畢業生求職》逾5成離鄉背井 嘉義、基隆外漂最多.txt</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>房價、經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-06-15_0530_自由時報_財經_缺工與躺平並存？20萬大畢生不願找頭路.txt</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>少子女化、缺工</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025-06-15_0530_自由時報_財經_跨國智庫齊聚台灣DSET 分享AI治理.txt</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>半導體、外資、供應鏈、能源、經濟</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>不明、示警、地緣政治</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-06-15_0833_自由時報_財經_星展銀行（台灣）舉辦「星展新加坡永續嘉年華」 落實「不塑飲水」、「循環餐具」推動綠色生活新理念.txt</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>金融、金融機構、經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025-06-15_1015_自由時報_財經_波音下調未來20年飛機需求預測.txt</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-06-15_1059_自由時報_財經_《守護我們的星球》！ 矽品精密觀影日發起永續聯名簽署行動.txt</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>半導體、半導體產業、供應鏈、經濟、綠電</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>淨零</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-06-15_1118_自由時報_財經_迎暑假旺季遊戲股火力全開 宇峻、傳奇等新遊戲登場.txt</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-06-15_1156_自由時報_財經_彭博：台灣將華為和中芯國際 列入出口黑名單.txt</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>國際貿易、貿易、經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-06-15_1211_自由時報_財經_中油：本週汽油價格不調整、柴油調漲0.3元.txt</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>中東地緣政治、地緣政治、地緣政治緊張、緊張</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-06-15_1245_自由時報_財經_中東戰事再起 元大航太防衛科技ETF今年漲幅逾三成.txt</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>外資、供應鏈、股市、景氣、經濟</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>預算</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>地緣政治、地緣政治緊張、重挫、緊張、戰爭風險</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-06-15_1341_自由時報_財經_印航空難逾279死 印度徹查波音787 不排除「全面停飛」.txt</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-06-15_1414_自由時報_財經_台積電晶圓代工市佔升至67.6％ 擴大全球領先 三星降至7.7％.txt</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>半導體、台積電、美元、經濟</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>關稅政策</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>放緩</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2025-06-15_1504_自由時報_財經_路透：美中倫敦談判留懸念 中國仍暫停軍用稀土出口美國.txt</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>貿易、經濟</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>中國國務院、國務院</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-06-15_1631_自由時報_財經_中國「這類股」飆漲60％ 另一種DeepSeek時刻.txt</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>併購、美元、經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-06-15_1652_自由時報_財經_報復華府收緊AI晶片出口 北京拖延新思科技1兆元併購案.txt</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>併購、金融、美元、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>擔憂</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-06-15_1702_自由時報_財經_「求救！求救！」印航空難飛行員最後遺言曝光.txt</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-06-15_1909_自由時報_財經_我金融三業對中曝險降至8769億 創有統計最低.txt</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>金融、政經情勢、經濟</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>緊縮</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>地緣政治、急凍、政治風險、動盪、審慎保守</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025-06-15_2005_自由時報_財經_全球最危險國家第1名令人驚訝 最安全前2名是冰島、新加坡.txt</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>金融、經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-06-15_2045_自由時報_財經_傳三星2原因恐被迫與中廠合作 外媒揭巨大風險.txt</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>隱憂</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-06-15_2047_自由時報_財經_申請新青安被勸退？公股銀行提醒審慎評估財務能力.txt</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>房市、房貸、金融、經濟</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>新青安</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>波動</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-06-15_2138_自由時報_財經_風電供應鏈廠商：3-1、3-2迫在眉睫 籲政府支持降低成本.txt</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>供應鏈、經濟、電價</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>國產化</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>倒閉、窘境、裁員</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-06-15_2147_自由時報_財經_離岸風電陷亂流 3-1期、3-2期風場進度雪上加霜.txt</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>供應鏈、能源、經濟、電價、綠電</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>國產化</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>不明、難題</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>8.14%</t>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>11.61%</t>
         </is>
       </c>
     </row>
